--- a/Calendario2022/Actividades/Actividad5/Act5.xlsx
+++ b/Calendario2022/Actividades/Actividad5/Act5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Actividades\Actividad5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B81811-4C50-4CF9-8170-1E466870CDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A0743-792C-4376-ACFF-3C89FE549541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31C17D5F-ACBA-4C3C-AC95-0EE350E3DE08}"/>
+    <workbookView xWindow="28920" yWindow="360" windowWidth="11070" windowHeight="14010" xr2:uid="{31C17D5F-ACBA-4C3C-AC95-0EE350E3DE08}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>3 minutos</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,13 +388,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD22E7C-6BE2-487E-8EA9-BE4253C6B243}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -446,6 +457,103 @@
         <v>1.4184397163120568</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f>(10*8)/B11</f>
+        <v>8.8657394580816756E-2</v>
+      </c>
+      <c r="B11">
+        <v>902.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" ref="A12:A13" si="0">(10*8)/B12</f>
+        <v>8.3272613719163099E-2</v>
+      </c>
+      <c r="B12">
+        <v>960.7</v>
+      </c>
+      <c r="C12">
+        <v>86.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>8.8657394580816756E-2</v>
+      </c>
+      <c r="B13">
+        <v>902.35</v>
+      </c>
+      <c r="C13">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f>(10*8)/B15</f>
+        <v>7.9051383399209492</v>
+      </c>
+      <c r="B15">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" ref="A16:A17" si="1">(10*8)/B16</f>
+        <v>8.5561497326203213</v>
+      </c>
+      <c r="B16">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>7.4766355140186924</v>
+      </c>
+      <c r="B17">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f>80/0.44</f>
+        <v>181.81818181818181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f>80/0.318</f>
+        <v>251.57232704402514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <f>D21/60</f>
+        <v>4.1928721174004187</v>
+      </c>
+      <c r="E22">
+        <f>181/60</f>
+        <v>3.0166666666666666</v>
+      </c>
+      <c r="F22">
+        <f>80/0.318</f>
+        <v>251.57232704402514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <f>(D22-4)*60</f>
+        <v>11.572327044025119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calendario2022/Actividades/Actividad5/Act5.xlsx
+++ b/Calendario2022/Actividades/Actividad5/Act5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Actividades\Actividad5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A0743-792C-4376-ACFF-3C89FE549541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A1178E-9F94-4A8A-941F-C6687EC410CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="360" windowWidth="11070" windowHeight="14010" xr2:uid="{31C17D5F-ACBA-4C3C-AC95-0EE350E3DE08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DB1E1576-0C02-43EA-9ECE-F81693895290}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>3 minutos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>dos conexiones</t>
+  </si>
+  <si>
+    <t>Outlets (2)</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Dos conexiones por persona</t>
+  </si>
+  <si>
+    <t>Podium (2.5 m)</t>
+  </si>
+  <si>
+    <t>Mesa 1 (7 m)</t>
+  </si>
+  <si>
+    <t>Mesa 2 (11 m)</t>
+  </si>
+  <si>
+    <t>Mesa 3 (14 m)</t>
+  </si>
+  <si>
+    <t>Mesa 4 (16 m)</t>
+  </si>
+  <si>
+    <t>Mesa 5 (3.5 m)</t>
+  </si>
+  <si>
+    <t>Mesa 6 (3.5 m)</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Canaleta Horizontal</t>
+  </si>
+  <si>
+    <t>Canaleta Vertical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +124,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,174 +468,649 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD22E7C-6BE2-487E-8EA9-BE4253C6B243}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0444A13D-E444-4250-AD88-A11505544654}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="9" max="10" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <f>(10*B1)/C1</f>
-        <v>1.0652631578947367</v>
-      </c>
-      <c r="B1">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="C1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>(10*B2)/C2</f>
-        <v>1.0807999075251415</v>
+        <v>2.5</v>
       </c>
       <c r="B2">
-        <v>9.35</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
-        <v>86.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <f>A2/B2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>D2*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f>(10*B3)/C3</f>
-        <v>1.3144963144963144</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>10.7</v>
+        <v>1.5</v>
       </c>
       <c r="C3">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <f>7/1.5</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">D3*2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="1">A4/B4</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f>(10*B5)/C5</f>
-        <v>0.43650793650793657</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.44</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>3.5</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
       <c r="D7">
-        <f>500*8/47</f>
-        <v>85.106382978723403</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <f>D7/60</f>
-        <v>1.4184397163120568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3.5</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="2">A8/B8</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>42</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUM(E2:E8)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f>(10*8)/B11</f>
-        <v>8.8657394580816756E-2</v>
-      </c>
-      <c r="B11">
-        <v>902.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <f t="shared" ref="A12:A13" si="0">(10*8)/B12</f>
-        <v>8.3272613719163099E-2</v>
-      </c>
-      <c r="B12">
-        <v>960.7</v>
-      </c>
-      <c r="C12">
-        <v>86.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>8.8657394580816756E-2</v>
-      </c>
-      <c r="B13">
-        <v>902.35</v>
-      </c>
-      <c r="C13">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <f>(10*8)/B15</f>
-        <v>7.9051383399209492</v>
-      </c>
-      <c r="B15">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <f t="shared" ref="A16:A17" si="1">(10*8)/B16</f>
-        <v>8.5561497326203213</v>
-      </c>
-      <c r="B16">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>7.4766355140186924</v>
-      </c>
-      <c r="B17">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C19">
-        <f>80/0.44</f>
-        <v>181.81818181818181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D21">
-        <f>80/0.318</f>
-        <v>251.57232704402514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D22">
-        <f>D21/60</f>
-        <v>4.1928721174004187</v>
-      </c>
-      <c r="E22">
-        <f>181/60</f>
-        <v>3.0166666666666666</v>
-      </c>
-      <c r="F22">
-        <f>80/0.318</f>
-        <v>251.57232704402514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D24">
-        <f>(D22-4)*60</f>
-        <v>11.572327044025119</v>
+        <f>84/24</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13*2</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13/2</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>E13+F13</f>
+        <v>3.5</v>
+      </c>
+      <c r="H13" s="2">
+        <f>G13*C13</f>
+        <v>14</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <f>B14*2</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="G14" s="2">
+        <f>E14+F14</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H14" s="2">
+        <f>G14*D14*2</f>
+        <v>29.400000000000002</v>
+      </c>
+      <c r="I14" s="2">
+        <v>7</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <f>2.5+(7/2)</f>
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="G15" s="2">
+        <f>E15+F15</f>
+        <v>8.4</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H14:H19" si="3">G15*D15*2</f>
+        <v>33.6</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:C26" si="4">B16*2</f>
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G16" s="2">
+        <f>E16+F16</f>
+        <v>6.3</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>50.4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <f>2.5+(11/2)</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G19" si="5">E17+F17</f>
+        <v>11.8</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>47.2</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <f>2.5+(11/4)</f>
+        <v>5.25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="5"/>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="2">
+        <f xml:space="preserve"> 4 +( 0.4*3)</f>
+        <v>5.2</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="5"/>
+        <v>7.7</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>61.6</v>
+      </c>
+      <c r="I19" s="2">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <f>2.5+(14/2)</f>
+        <v>9.5</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" ref="F20:F21" si="6" xml:space="preserve"> 4 +( 0.4*3)</f>
+        <v>5.2</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ref="G20:G26" si="7">E20+F20</f>
+        <v>14.7</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ref="H20:H26" si="8">G20*D20*2</f>
+        <v>58.8</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <f>2.5+(14/4)</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="7"/>
+        <v>11.2</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="8"/>
+        <v>89.6</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="2">
+        <f>5 + (0.4*4)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="8"/>
+        <v>72.8</v>
+      </c>
+      <c r="I22" s="2">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <f>2.5+(16/2)</f>
+        <v>10.5</v>
+      </c>
+      <c r="F23" s="2">
+        <f>5 + (0.4*4)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="7"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="8"/>
+        <v>102.60000000000001</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <f>2.5+(16/4)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F24" s="2">
+        <f>5 + (0.4*4)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="7"/>
+        <v>13.1</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="8"/>
+        <v>104.8</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:D26" si="9">C25/2</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2">
+        <f>5 + (0.4*4)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
+        <v>15.6</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="8"/>
+        <v>93.6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2">
+        <f>5 + (0.4*4)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="7"/>
+        <v>15.6</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="8"/>
+        <v>93.6</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D27" s="4">
+        <f>SUM(D13:D26)</f>
+        <v>42</v>
+      </c>
+      <c r="H27" s="3">
+        <f>SUM(H13:H26)</f>
+        <v>888.2</v>
+      </c>
+      <c r="I27" s="2">
+        <f>SUM(I13:I26)</f>
+        <v>52.5</v>
+      </c>
+      <c r="J27" s="2">
+        <f>SUM(J13:J26)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <f>I27+J27</f>
+        <v>60.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>